--- a/Iteration-1/time_cards.xlsx
+++ b/Iteration-1/time_cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Desktop\Car_Software_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{557F1908-99D6-495D-8F77-8C0AF295274C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E768C00F-139B-4DD0-9978-1641D3BBB373}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6998" yWindow="600" windowWidth="19305" windowHeight="14138" xr2:uid="{B62098E1-3187-41F4-98CC-20B71604981B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Weston Straw</t>
   </si>
   <si>
-    <t>4h 07m</t>
+    <t>4h 37m</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Iteration-1/time_cards.xlsx
+++ b/Iteration-1/time_cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Desktop\Car_Software_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E768C00F-139B-4DD0-9978-1641D3BBB373}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6649DF3-BD2D-45BD-A69E-D1826378941F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6998" yWindow="600" windowWidth="19305" windowHeight="14138" xr2:uid="{B62098E1-3187-41F4-98CC-20B71604981B}"/>
+    <workbookView xWindow="593" yWindow="263" windowWidth="19304" windowHeight="14137" xr2:uid="{B62098E1-3187-41F4-98CC-20B71604981B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -57,15 +57,23 @@
     <t>Weston Straw</t>
   </si>
   <si>
-    <t>4h 37m</t>
+    <t>5h 22m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +421,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -421,10 +430,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Iteration-1/time_cards.xlsx
+++ b/Iteration-1/time_cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Desktop\Car_Software_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Software Engineering 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6649DF3-BD2D-45BD-A69E-D1826378941F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1AE7E24-3728-4D5E-8ADD-6BA5F9BE96B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="593" yWindow="263" windowWidth="19304" windowHeight="14137" xr2:uid="{B62098E1-3187-41F4-98CC-20B71604981B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{B62098E1-3187-41F4-98CC-20B71604981B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +57,9 @@
   </si>
   <si>
     <t>5h 22m</t>
+  </si>
+  <si>
+    <t>8h 14m</t>
   </si>
 </sst>
 </file>
@@ -421,15 +423,15 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.3984375" customWidth="1"/>
+    <col min="1" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,17 +439,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -455,19 +457,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Iteration-1/time_cards.xlsx
+++ b/Iteration-1/time_cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Software Engineering 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Desktop/Code/CSI-3471/Project/C.A.R./Iteration-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1AE7E24-3728-4D5E-8ADD-6BA5F9BE96B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396A33FF-429B-F143-9F6B-872A14043D9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{B62098E1-3187-41F4-98CC-20B71604981B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14020" xr2:uid="{B62098E1-3187-41F4-98CC-20B71604981B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>8h 14m</t>
+  </si>
+  <si>
+    <t>8h 15m</t>
   </si>
 </sst>
 </file>
@@ -423,15 +426,15 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,17 +442,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -457,17 +463,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/Iteration-1/time_cards.xlsx
+++ b/Iteration-1/time_cards.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Desktop/Code/CSI-3471/Project/C.A.R./Iteration-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AndrewCase/C.A.R./Iteration-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396A33FF-429B-F143-9F6B-872A14043D9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDCD0EA-9228-524D-9B4A-23768AC4AF8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14020" xr2:uid="{B62098E1-3187-41F4-98CC-20B71604981B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14020" xr2:uid="{B62098E1-3187-41F4-98CC-20B71604981B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -63,6 +58,9 @@
   </si>
   <si>
     <t>8h 15m</t>
+  </si>
+  <si>
+    <t>8h 30m</t>
   </si>
 </sst>
 </file>
@@ -446,6 +444,9 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">

--- a/Iteration-1/time_cards.xlsx
+++ b/Iteration-1/time_cards.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AndrewCase/C.A.R./Iteration-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark_du1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDCD0EA-9228-524D-9B4A-23768AC4AF8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14020" xr2:uid="{B62098E1-3187-41F4-98CC-20B71604981B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,9 +50,6 @@
     <t>Weston Straw</t>
   </si>
   <si>
-    <t>5h 22m</t>
-  </si>
-  <si>
     <t>8h 14m</t>
   </si>
   <si>
@@ -61,12 +57,15 @@
   </si>
   <si>
     <t>8h 30m</t>
+  </si>
+  <si>
+    <t>8h 1m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,19 +419,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFB2E18-D8DC-47B4-8AF7-B9DD26B045BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5" customWidth="1"/>
+    <col min="1" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,46 +439,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Iteration-1/time_cards.xlsx
+++ b/Iteration-1/time_cards.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark_du1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevie_damrel/Desktop/Software 1 Project/Code/Iteration-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A29C840-6637-064C-85FE-8AE40E1C94D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -60,12 +61,15 @@
   </si>
   <si>
     <t>8h 1m</t>
+  </si>
+  <si>
+    <t>8h 17m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,19 +423,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -447,7 +451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -455,7 +459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -463,17 +467,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/Iteration-1/time_cards.xlsx
+++ b/Iteration-1/time_cards.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevie_damrel/Desktop/Software 1 Project/Code/Iteration-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maggieburton/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A29C840-6637-064C-85FE-8AE40E1C94D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -69,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,7 +428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -471,6 +476,9 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">

--- a/Iteration-1/time_cards.xlsx
+++ b/Iteration-1/time_cards.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maggieburton/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AndrewCase/C.A.R./Iteration-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A56502-75A5-744E-8276-BFEDD2218ED1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -69,12 +70,15 @@
   </si>
   <si>
     <t>8h 17m</t>
+  </si>
+  <si>
+    <t>9h 15m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,11 +432,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -453,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
